--- a/biology/Médecine/Nerf_zygomatique/Nerf_zygomatique.xlsx
+++ b/biology/Médecine/Nerf_zygomatique/Nerf_zygomatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf zygomatique est une branche du nerf maxillaire, lui-même branche du nerf trijumeau (CN V). Il parcourt l'orbite et se divise en branches qui assurent l'innervation sensorielle de la peau au-dessus des os zygomatiques et temporaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf zygomatique est une branche du nerf maxillaire, lui-même branche du nerf trijumeau (CN V). Il parcourt l'orbite et se divise en branches qui assurent l'innervation sensorielle de la peau au-dessus des os zygomatiques et temporaux.
 </t>
         </is>
       </c>
@@ -511,13 +523,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nerf zygomatique est une branche du nerf maxillaire au niveau du ganglion ptérygopalatin. Il voyage dans la fosse ptérygopalatine à travers la fissure orbitaire inférieure pour entrer dans l'orbite. Dans l'orbite, il se déplace vers l'avant le long de la paroi latérale. Peu après son entrée dans l'orbite, il se divise en nerfs zygomatico-temporal et zygomatico-facial. Ces nerfs se déplacent ensuite à travers des foramens de même nom dans la surface orbitale de l'os zygomatique.
-Branches
-branche communicante au nerf lacrymal
-nerf zygomatico-temporal
-nerf zygomatico-facial</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf zygomatique est une branche du nerf maxillaire au niveau du ganglion ptérygopalatin. Il voyage dans la fosse ptérygopalatine à travers la fissure orbitaire inférieure pour entrer dans l'orbite. Dans l'orbite, il se déplace vers l'avant le long de la paroi latérale. Peu après son entrée dans l'orbite, il se divise en nerfs zygomatico-temporal et zygomatico-facial. Ces nerfs se déplacent ensuite à travers des foramens de même nom dans la surface orbitale de l'os zygomatique.
+</t>
         </is>
       </c>
     </row>
@@ -542,14 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fonction</t>
+          <t>Structure</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les branches terminales du nerf zygomatique contiennent des axones sensoriels qui assurent l'innervation de la peau recouvrant les os temporaux et zygomatiques.
-Le nerf zygomatique transporte également des axones parasympathiques postganglionnaires. Ces axones ont leur corps cellulaire dans le ganglion ptérygopalatin. Ils se déplacent du ganglion au nerf zygomatique puis au nerf lacrymal par une branche communicante. Du nerf lacrymal, ils pénètrent dans la glande lacrymale et assurent l'innervation sécréto-motrice.
-</t>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>branche communicante au nerf lacrymal
+nerf zygomatico-temporal
+nerf zygomatico-facial</t>
         </is>
       </c>
     </row>
@@ -574,12 +591,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les branches terminales du nerf zygomatique contiennent des axones sensoriels qui assurent l'innervation de la peau recouvrant les os temporaux et zygomatiques.
+Le nerf zygomatique transporte également des axones parasympathiques postganglionnaires. Ces axones ont leur corps cellulaire dans le ganglion ptérygopalatin. Ils se déplacent du ganglion au nerf zygomatique puis au nerf lacrymal par une branche communicante. Du nerf lacrymal, ils pénètrent dans la glande lacrymale et assurent l'innervation sécréto-motrice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_zygomatique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_zygomatique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parfois le nerf zygomatique ne se ramifie pas dans l'orbite et pénètre par un seul foramen dans l'os zygomatique appelé le foramen zygomatico-orbitaire. Dans ce cas, il se divise à l'intérieur de l'os en nerfs zygomatico-temporal et zygomatico-facial[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parfois le nerf zygomatique ne se ramifie pas dans l'orbite et pénètre par un seul foramen dans l'os zygomatique appelé le foramen zygomatico-orbitaire. Dans ce cas, il se divise à l'intérieur de l'os en nerfs zygomatico-temporal et zygomatico-facial.
 </t>
         </is>
       </c>
